--- a/hashtable/record.xlsx
+++ b/hashtable/record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\someIdeaPrac\leetcode\hashtable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B270CE-068E-4FD2-966E-39B8A5011616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6E5027-4CF4-4A23-AD83-992DE44A7667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6312" yWindow="5040" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,14 @@
   </si>
   <si>
     <t>res = 的长度测试以及如何在列表中找到最长词的方法，max第二个参数也可以是函数，相当于回调函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>697数组的度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hashmap值的存储方式（其实可以不用记）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -421,6 +429,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hashtable/record.xlsx
+++ b/hashtable/record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\someIdeaPrac\leetcode\hashtable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6E5027-4CF4-4A23-AD83-992DE44A7667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B15B47-09CB-4530-8AC4-AA9BC73178DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6312" yWindow="5040" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,14 @@
   </si>
   <si>
     <t>hashmap值的存储方式（其实可以不用记）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1370上升下降字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次用到桶计数，注意桶计数的题目特点并相较于hashtable的各自用法。桶计数对于固定字符种类（固定桶数量）和顺序寻找相比于hashtable有天然优势，方便索引。注意体会。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -107,8 +115,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -389,16 +400,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.44140625" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" customWidth="1"/>
+    <col min="4" max="4" width="69.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -441,6 +452,20 @@
       </c>
       <c r="D3" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/hashtable/record.xlsx
+++ b/hashtable/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\someIdeaPrac\leetcode\hashtable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B15B47-09CB-4530-8AC4-AA9BC73178DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112CFDAA-F65F-4175-BC1F-26E652A98CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,14 @@
   </si>
   <si>
     <t>第一次用到桶计数，注意桶计数的题目特点并相较于hashtable的各自用法。桶计数对于固定字符种类（固定桶数量）和顺序寻找相比于hashtable有天然优势，方便索引。注意体会。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>819最常见的单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官方思路是切分，但切分之前将除了空格外的标点都转换为空格，可以统一用split切分，还有set细节加速查找</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -400,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -468,6 +476,20 @@
         <v>11</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hashtable/record.xlsx
+++ b/hashtable/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\someIdeaPrac\leetcode\hashtable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112CFDAA-F65F-4175-BC1F-26E652A98CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED53B82-3DAB-467F-8332-E5DCFAD7A25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,14 @@
   </si>
   <si>
     <t>官方思路是切分，但切分之前将除了空格外的标点都转换为空格，可以统一用split切分，还有set细节加速查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>299猜数字游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和 面试题 16.15. 珠玑妙算 一模一样，不写了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -490,6 +498,20 @@
         <v>13</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hashtable/record.xlsx
+++ b/hashtable/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\someIdeaPrac\leetcode\hashtable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED53B82-3DAB-467F-8332-E5DCFAD7A25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5325C19E-6E22-4573-8529-3CFD3C492CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,14 @@
   </si>
   <si>
     <t>和 面试题 16.15. 珠玑妙算 一模一样，不写了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1160拼写单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两点，一是通过collections.Counter构建的字典可以查找不存在的键，如果不存在，则返回0。第二点是对于for...else while…else的用法，可以巧妙使用避免用到flag来判断，精简代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -512,6 +520,20 @@
         <v>15</v>
       </c>
     </row>
+    <row r="7" spans="1:4" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hashtable/record.xlsx
+++ b/hashtable/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\someIdeaPrac\leetcode\hashtable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5325C19E-6E22-4573-8529-3CFD3C492CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA8AD75-21CA-4FB7-ACF6-C10E4032343E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,18 @@
   </si>
   <si>
     <t>两点，一是通过collections.Counter构建的字典可以查找不存在的键，如果不存在，则返回0。第二点是对于for...else while…else的用法，可以巧妙使用避免用到flag来判断，精简代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1170.比较字符串最小字母出现频次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意min(hashmap.keys())和min(hashmap, key=hashmap.get)的区别，分别针对键和值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -534,6 +546,20 @@
         <v>17</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hashtable/record.xlsx
+++ b/hashtable/record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\someIdeaPrac\leetcode\hashtable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA8AD75-21CA-4FB7-ACF6-C10E4032343E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D96F306-AA4C-432F-9E0B-FEF813816CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,15 +99,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1170.比较字符串最小字母出现频次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>注意min(hashmap.keys())和min(hashmap, key=hashmap.get)的区别，分别针对键和值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1170比较字符串最小字母出现频次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1128等价多米诺骨牌对的数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官解两个细节，一个是合理表示需要构建类似以二元组为键的字典，二是在线更新排列组合形式的数量，+=1，比统计完后再x(x-1)/2更快</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -548,16 +556,30 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/hashtable/record.xlsx
+++ b/hashtable/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\someIdeaPrac\leetcode\hashtable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D96F306-AA4C-432F-9E0B-FEF813816CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98B8709-712B-48AF-886B-AD4FED08A503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +116,14 @@
   </si>
   <si>
     <t>官解两个细节，一个是合理表示需要构建类似以二元组为键的字典，二是在线更新排列组合形式的数量，+=1，比统计完后再x(x-1)/2更快</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1893检查是否区域内所有整数都被覆盖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两种解法，一个差分数组+前缀和，一个位运算的妙用。首次理解了前缀。。。的操作，首次见到差分数组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -582,6 +590,20 @@
         <v>22</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hashtable/record.xlsx
+++ b/hashtable/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\someIdeaPrac\leetcode\hashtable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98B8709-712B-48AF-886B-AD4FED08A503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19545104-8522-4901-A584-3259C5B3FAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +124,14 @@
   </si>
   <si>
     <t>两种解法，一个差分数组+前缀和，一个位运算的妙用。首次理解了前缀。。。的操作，首次见到差分数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1496判断路径是否相交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官解两个细节，一个是set集合可以存储二元形式，不像hashtable. 二是更新方向时也可以构建哈希表，加快速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -604,6 +612,20 @@
         <v>24</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
